--- a/Gráficas HDT-3.xlsx
+++ b/Gráficas HDT-3.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="180" documentId="8_{DE328AE3-2B22-41F6-8A81-3B4D03C03A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67179D96-9409-4F2C-B9EB-998F8104BBA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{CCA2197E-9DC6-4165-B8D0-EC5521DB8899}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CCA2197E-9DC6-4165-B8D0-EC5521DB8899}"/>
   </bookViews>
   <sheets>
     <sheet name="Insertion Sort" sheetId="1" r:id="rId1"/>
@@ -13112,8 +13112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F45A4E5-53A5-410C-AC40-384626E32FC2}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13217,7 +13217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50E2BAF-7D11-4438-ABF5-39D2ED513F43}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -13322,7 +13322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9C22FD-F002-4358-934A-43745CB1268F}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -13427,7 +13427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676DFC3A-6EC0-452A-AEA9-FEA477635349}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -13532,7 +13532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0E6F1-BAA3-4348-82C6-03E8E49A3415}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -13637,7 +13637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AA3E3A-BD1E-4BD3-B2E3-EC85F57F6BC3}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
